--- a/requirements-traceability-matrix-template-vwo.xlsx
+++ b/requirements-traceability-matrix-template-vwo.xlsx
@@ -1,58 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Requirement traceability Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D947851C-D6EA-47C4-ADDF-5360DA5AC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C20A4-DE3B-47B2-9802-C6086F4DC598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{38B85A3F-BD57-43B9-95A5-FB9BB62706E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{38B85A3F-BD57-43B9-95A5-FB9BB62706E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template Guidelines" sheetId="5" r:id="rId1"/>
-    <sheet name="Traceability Template" sheetId="1" r:id="rId2"/>
+    <sheet name="Traceability Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Traceability Template'!$A$1:$I$36</definedName>
-    <definedName name="Text2" localSheetId="1">'Traceability Template'!#REF!</definedName>
-    <definedName name="Text3" localSheetId="1">'Traceability Template'!#REF!</definedName>
-    <definedName name="Text4" localSheetId="1">'Traceability Template'!#REF!</definedName>
-    <definedName name="Text5" localSheetId="1">'Traceability Template'!#REF!</definedName>
-    <definedName name="Text6" localSheetId="1">'Traceability Template'!#REF!</definedName>
-    <definedName name="Text7" localSheetId="1">'Traceability Template'!#REF!</definedName>
-    <definedName name="Text8" localSheetId="1">'Traceability Template'!#REF!</definedName>
-    <definedName name="Text9" localSheetId="1">'Traceability Template'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Traceability Template'!$A$1:$I$36</definedName>
+    <definedName name="Text2" localSheetId="0">'Traceability Template'!#REF!</definedName>
+    <definedName name="Text3" localSheetId="0">'Traceability Template'!#REF!</definedName>
+    <definedName name="Text4" localSheetId="0">'Traceability Template'!#REF!</definedName>
+    <definedName name="Text5" localSheetId="0">'Traceability Template'!#REF!</definedName>
+    <definedName name="Text6" localSheetId="0">'Traceability Template'!#REF!</definedName>
+    <definedName name="Text7" localSheetId="0">'Traceability Template'!#REF!</definedName>
+    <definedName name="Text8" localSheetId="0">'Traceability Template'!#REF!</definedName>
+    <definedName name="Text9" localSheetId="0">'Traceability Template'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
-  <si>
-    <t>Tracing requirements through testing is owned by the Project Manager.  However, the Business Analyst is responsible for insuring that the template is created and maintained.  The Project Team provides necessary input.</t>
-  </si>
-  <si>
-    <t>It is created once the business requirements are completed and approved in the Requirements Stage of the Execution Phase.  As the product(s) of the project are designed, built and tested, the template is updated and maintained accordingly.
-Requirements Traceability is a required deliverable for all projects.  This Requirements Traceability template is provided for use with technology projects.  It can also be utilized for non-technology/business line projects; however, the sub-headings may need to be changed to accommodate the type(s) of design documentation created for the project.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Requirements Traceability template includes data input fields that support internal controls and processes, corporate policies and risk mitigation principles, governance drivers, and/or project management control standards and proven best practices.  It provides the minimum basic fields required to successfully complete the requirements traceability deliverable in meeting PMO requirements.  The amount of detail included in the template will depend on the size, complexity and type of project.
-Each data input field provided in this template should be considered for applicability and relevance to the project at hand.  Depending on the needs of the project and business owner, data input fields can be added, but should not be deleted.  If a provided field in the template does not apply do NOT delete it, but rather mark it as "N/A" (non-applicable) and provide a BRIEF explanation as to why it doesn't apply to the project.  </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Project Name</t>
   </si>
@@ -63,41 +42,6 @@
     <t>Requirement Description</t>
   </si>
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Ownership</t>
-  </si>
-  <si>
-    <t>When</t>
-  </si>
-  <si>
-    <t>Template Completion</t>
-  </si>
-  <si>
-    <t>Important Notice</t>
-  </si>
-  <si>
-    <t>Template
-Flexibility</t>
-  </si>
-  <si>
-    <t>Traceability is an activity that establishes a thread that traces or maps business requirements from identification through implementation.  There is a forward and backward element to this activity that verfies that every requirement has been allocated appropriately through design, build (development) and testing.</t>
-  </si>
-  <si>
-    <t>Requirements Traceability Matrix Template Guidelines</t>
-  </si>
-  <si>
-    <t>The purpose of the Requirements Traceability template is to ensure that all design, build and test documents conform to the components of the business requirements.  The template is used to verify that all requirements are allocated to system components and other deliverables (forward trace).  It is also used to determine the source of documented, implemented and tested system changes (backward trace).
-It ensures that all requirements are met and helps to locate affected system components when there is a requirements change.  This ability allows the impact of requirements changes on the system to be determined, thereby facilitating cost, benefit and schedule changes.</t>
-  </si>
-  <si>
-    <t>To aid in the completion of a Requirements Traceability template, please adhere to the following guidelines.  For additional assistance regarding templates or project deliverables please refer to the University Services Program Management Office.</t>
-  </si>
-  <si>
     <t>Business Area</t>
   </si>
   <si>
@@ -135,30 +79,6 @@
   </si>
   <si>
     <t>Use Case Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.  This Template Guidelines section is for reference purposes only.  It should be printed and deleted prior to completing the final document.
- 2.  Enter the project # (if applicable) and name in the page header and the Project Owning Line of Business Name in the page footer; e.g.
-      Technology Information Group, Home and Consumer Finance Group, Private Client Services, etc.
- 3.  Note that the included blue &lt; &gt; bracketed text is NOT to be included in your final document.  Its purpose is to either provide
-      guidance for completing requested information or to show where text is to be input.
- 4.  This Requirements Traceability template is designed for use with technology projects as it traces Test Plans/Results back to systems and architecture
-      designs to the original business requirements.  For non-technology projects, the sub-headings under Design Solution would need to be changed
-      to accommodate the type(s) of design documentation created for the project.
- 5.  The Req ID# corresponds to the Requirements Identification number from the Business Requirements Document (BRD) or Use Cases if iterative
-      development is the chosen design approach.
- 6.  Design Solutions for mapping include the Detailed Technical System Specifications document(s) as well as various Systems Architecture 
-Specifications (SAS), Application Architecture  Specifications (AAS), Logical Design documents, etc. and the various created for the project.  
-There may not be a unique ID# and description for each requirement analyzed in the Detailed Technical Specifications document(s).  Expand the 
-number of columns (increase page size to Legal) as needed and/or separate the single table into additional tables to accomodate all FSDs.
- 7.  If there are multiple Test Plans for the same Requirement, then expand these columns as well.  Note that these are the more detailed
-      test plans that are created from the Master Test Plan.
- 8.  If you have addtional notations for the information included on the Matrix, then include them within the Comments section.
- 9.  Once the Requirements Traceability template is completed and after the project has been closed, this document is to be retained with other 
-project documentation in accordance with the PMO standards and the business line's records schedule, storage and destruction requirements.</t>
-  </si>
-  <si>
-    <t>As this template may change, it is highly recommended that you access a blank template for each new project and not merely use one from a previous project by editing the content.</t>
   </si>
   <si>
     <t>John Doe</t>
@@ -342,13 +262,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -400,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -438,17 +354,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -456,53 +361,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -808,525 +697,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274E1DB6-5614-43FC-BE2E-92EE6F1D43DC}">
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="324" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F338C5-98A6-46E8-A6F8-C49CBEE861F5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1350,20 +720,20 @@
     <col min="9" max="9" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+    <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
+      <c r="A2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1375,274 +745,274 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8">
+        <v>45853</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16" t="s">
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16" t="s">
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="19">
-        <v>45853</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="H9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="I9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="18" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="H10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="I10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="18" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="C11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="D11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="E11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="G11" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="H11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="I11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="18" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="B12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="C12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="D12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="E12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="G12" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="H12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="I12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="18" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="B13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="C13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="D13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="F13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="G13" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="H13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="I13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
